--- a/docs/assets/assets/afl_players_2026.xlsx
+++ b/docs/assets/assets/afl_players_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FlutterProjects\my_app\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A673AE2-0832-45F3-8892-FFFEE3B7DEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CF3758-DFC8-4375-AC6A-63FA0E2C9FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{665E5CEE-4E8C-4944-8463-360E9D61C4FF}"/>
+    <workbookView xWindow="4605" yWindow="1005" windowWidth="25905" windowHeight="20760" xr2:uid="{665E5CEE-4E8C-4944-8463-360E9D61C4FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -299,9 +299,6 @@
     <t>Oscar Allen</t>
   </si>
   <si>
-    <t>Brisbane</t>
-  </si>
-  <si>
     <t>Lachie Cowan</t>
   </si>
   <si>
@@ -2381,15 +2378,9 @@
     <t>Fremantle</t>
   </si>
   <si>
-    <t>Geelong</t>
-  </si>
-  <si>
     <t>Gold Coast Suns</t>
   </si>
   <si>
-    <t>Greater Western Sydney</t>
-  </si>
-  <si>
     <t>Hawthorn</t>
   </si>
   <si>
@@ -2424,6 +2415,15 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Brisbane Lions</t>
+  </si>
+  <si>
+    <t>Geelong Cats</t>
+  </si>
+  <si>
+    <t>GWS GIants</t>
   </si>
 </sst>
 </file>
@@ -2840,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4E5FAF-ED52-4998-8EA2-2EBE5839156D}">
   <dimension ref="A1:D776"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A757" workbookViewId="0">
+      <selection activeCell="F782" sqref="F782"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2853,16 +2853,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3432,7 +3432,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -3446,7 +3446,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C44" s="1">
         <v>3</v>
@@ -3460,7 +3460,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C45" s="1">
         <v>5</v>
@@ -3474,7 +3474,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C46" s="1">
         <v>6</v>
@@ -3488,7 +3488,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C47" s="1">
         <v>7</v>
@@ -3502,7 +3502,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C48" s="1">
         <v>8</v>
@@ -3516,7 +3516,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C49" s="1">
         <v>9</v>
@@ -3530,7 +3530,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C50" s="1">
         <v>10</v>
@@ -3544,7 +3544,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C51" s="1">
         <v>11</v>
@@ -3558,7 +3558,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C52" s="1">
         <v>12</v>
@@ -3572,7 +3572,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C53" s="1">
         <v>13</v>
@@ -3586,7 +3586,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C54" s="1">
         <v>15</v>
@@ -3600,7 +3600,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C55" s="1">
         <v>16</v>
@@ -3614,7 +3614,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C56" s="1">
         <v>17</v>
@@ -3628,7 +3628,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C57" s="1">
         <v>18</v>
@@ -3642,7 +3642,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C58" s="1">
         <v>19</v>
@@ -3656,7 +3656,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C59" s="1">
         <v>20</v>
@@ -3670,7 +3670,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C60" s="1">
         <v>21</v>
@@ -3684,7 +3684,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C61" s="1">
         <v>22</v>
@@ -3698,7 +3698,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C62" s="1">
         <v>23</v>
@@ -3712,7 +3712,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C63" s="1">
         <v>25</v>
@@ -3726,7 +3726,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C64" s="1">
         <v>26</v>
@@ -3740,7 +3740,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C65" s="1">
         <v>27</v>
@@ -3754,7 +3754,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C66" s="1">
         <v>28</v>
@@ -3768,7 +3768,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C67" s="1">
         <v>29</v>
@@ -3782,7 +3782,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C68" s="1">
         <v>30</v>
@@ -3796,7 +3796,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C69" s="1">
         <v>31</v>
@@ -3810,7 +3810,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C70" s="1">
         <v>32</v>
@@ -3824,7 +3824,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C71" s="1">
         <v>33</v>
@@ -3838,7 +3838,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C72" s="1">
         <v>34</v>
@@ -3852,7 +3852,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C73" s="1">
         <v>35</v>
@@ -3866,7 +3866,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C74" s="1">
         <v>36</v>
@@ -3880,7 +3880,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C75" s="1">
         <v>38</v>
@@ -3894,7 +3894,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C76" s="1">
         <v>40</v>
@@ -3908,7 +3908,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C77" s="1">
         <v>41</v>
@@ -3922,7 +3922,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C78" s="1">
         <v>43</v>
@@ -3936,7 +3936,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C79" s="1">
         <v>44</v>
@@ -3950,7 +3950,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="D80">
         <v>2026</v>
@@ -3961,7 +3961,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="D81">
         <v>2026</v>
@@ -3972,7 +3972,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="D82">
         <v>2026</v>
@@ -3983,7 +3983,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="D83">
         <v>2026</v>
@@ -3994,7 +3994,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="D84">
         <v>2026</v>
@@ -4005,7 +4005,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="D85">
         <v>2026</v>
@@ -4013,10 +4013,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C86" s="1">
         <v>2</v>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C87" s="1">
         <v>3</v>
@@ -4041,10 +4041,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C88" s="1">
         <v>4</v>
@@ -4055,10 +4055,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C89" s="1">
         <v>5</v>
@@ -4069,10 +4069,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C90" s="1">
         <v>6</v>
@@ -4083,10 +4083,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C91" s="1">
         <v>7</v>
@@ -4097,10 +4097,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C92" s="1">
         <v>8</v>
@@ -4111,10 +4111,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C93" s="1">
         <v>9</v>
@@ -4125,10 +4125,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C94" s="1">
         <v>10</v>
@@ -4139,10 +4139,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C95" s="1">
         <v>11</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C96" s="1">
         <v>13</v>
@@ -4167,10 +4167,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C97" s="1">
         <v>16</v>
@@ -4181,10 +4181,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C98" s="1">
         <v>17</v>
@@ -4195,10 +4195,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C99" s="1">
         <v>18</v>
@@ -4209,10 +4209,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C100" s="1">
         <v>21</v>
@@ -4223,10 +4223,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C101" s="1">
         <v>22</v>
@@ -4237,10 +4237,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C102" s="1">
         <v>23</v>
@@ -4251,10 +4251,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C103" s="1">
         <v>24</v>
@@ -4265,10 +4265,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C104" s="1">
         <v>26</v>
@@ -4279,10 +4279,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C105" s="1">
         <v>27</v>
@@ -4293,10 +4293,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C106" s="1">
         <v>28</v>
@@ -4307,10 +4307,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C107" s="1">
         <v>29</v>
@@ -4321,10 +4321,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C108" s="1">
         <v>32</v>
@@ -4335,10 +4335,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C109" s="1">
         <v>33</v>
@@ -4349,10 +4349,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C110" s="1">
         <v>34</v>
@@ -4363,10 +4363,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C111" s="1">
         <v>35</v>
@@ -4377,10 +4377,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C112" s="1">
         <v>36</v>
@@ -4391,10 +4391,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C113" s="1">
         <v>37</v>
@@ -4405,10 +4405,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C114" s="1">
         <v>40</v>
@@ -4419,10 +4419,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C115" s="1">
         <v>41</v>
@@ -4433,10 +4433,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C116" s="1">
         <v>42</v>
@@ -4447,10 +4447,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C117" s="1">
         <v>43</v>
@@ -4461,10 +4461,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C118" s="1">
         <v>44</v>
@@ -4475,10 +4475,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C119" s="1">
         <v>45</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C120" s="1">
         <v>46</v>
@@ -4503,10 +4503,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D121">
         <v>2026</v>
@@ -4514,10 +4514,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D122">
         <v>2026</v>
@@ -4525,10 +4525,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D123">
         <v>2026</v>
@@ -4536,10 +4536,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D124">
         <v>2026</v>
@@ -4547,10 +4547,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D125">
         <v>2026</v>
@@ -4558,10 +4558,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D126">
         <v>2026</v>
@@ -4569,10 +4569,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D127">
         <v>2026</v>
@@ -4580,10 +4580,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="D128">
         <v>2026</v>
@@ -4591,10 +4591,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
@@ -4605,10 +4605,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C130" s="1">
         <v>2</v>
@@ -4619,10 +4619,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C131" s="1">
         <v>3</v>
@@ -4633,10 +4633,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C132" s="1">
         <v>4</v>
@@ -4647,10 +4647,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C133" s="1">
         <v>5</v>
@@ -4661,10 +4661,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C134" s="1">
         <v>7</v>
@@ -4675,10 +4675,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C135" s="1">
         <v>8</v>
@@ -4689,10 +4689,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C136" s="1">
         <v>9</v>
@@ -4703,10 +4703,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C137" s="1">
         <v>10</v>
@@ -4717,10 +4717,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C138" s="1">
         <v>11</v>
@@ -4731,10 +4731,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C139" s="1">
         <v>12</v>
@@ -4745,10 +4745,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C140" s="1">
         <v>13</v>
@@ -4759,10 +4759,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C141" s="1">
         <v>14</v>
@@ -4773,10 +4773,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C142" s="1">
         <v>15</v>
@@ -4787,10 +4787,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C143" s="1">
         <v>16</v>
@@ -4801,10 +4801,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C144" s="1">
         <v>17</v>
@@ -4815,10 +4815,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C145" s="1">
         <v>19</v>
@@ -4829,10 +4829,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C146" s="1">
         <v>20</v>
@@ -4843,10 +4843,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C147" s="1">
         <v>21</v>
@@ -4857,10 +4857,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C148" s="1">
         <v>22</v>
@@ -4871,10 +4871,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C149" s="1">
         <v>23</v>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C150" s="1">
         <v>24</v>
@@ -4899,10 +4899,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C151" s="1">
         <v>25</v>
@@ -4913,10 +4913,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C152" s="1">
         <v>26</v>
@@ -4927,10 +4927,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C153" s="1">
         <v>27</v>
@@ -4941,10 +4941,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C154" s="1">
         <v>28</v>
@@ -4955,10 +4955,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C155" s="1">
         <v>29</v>
@@ -4969,10 +4969,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C156" s="1">
         <v>30</v>
@@ -4983,10 +4983,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C157" s="1">
         <v>31</v>
@@ -4997,10 +4997,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C158" s="1">
         <v>33</v>
@@ -5011,10 +5011,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C159" s="1">
         <v>35</v>
@@ -5025,10 +5025,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C160" s="1">
         <v>36</v>
@@ -5039,10 +5039,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C161" s="1">
         <v>38</v>
@@ -5053,10 +5053,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C162" s="1">
         <v>39</v>
@@ -5067,10 +5067,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C163" s="1">
         <v>44</v>
@@ -5081,10 +5081,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C164" s="1">
         <v>45</v>
@@ -5095,10 +5095,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C165" s="1">
         <v>47</v>
@@ -5109,10 +5109,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D166">
         <v>2026</v>
@@ -5120,10 +5120,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D167">
         <v>2026</v>
@@ -5131,10 +5131,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D168">
         <v>2026</v>
@@ -5142,10 +5142,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D169">
         <v>2026</v>
@@ -5153,10 +5153,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D170">
         <v>2026</v>
@@ -5164,10 +5164,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D171">
         <v>2026</v>
@@ -5175,10 +5175,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C172" s="1">
         <v>1</v>
@@ -5189,10 +5189,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C173" s="1">
         <v>3</v>
@@ -5203,10 +5203,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C174" s="1">
         <v>4</v>
@@ -5217,10 +5217,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C175" s="1">
         <v>5</v>
@@ -5231,10 +5231,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C176" s="1">
         <v>6</v>
@@ -5245,10 +5245,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C177" s="1">
         <v>7</v>
@@ -5259,10 +5259,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C178" s="1">
         <v>10</v>
@@ -5273,10 +5273,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C179" s="1">
         <v>11</v>
@@ -5287,10 +5287,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C180" s="1">
         <v>12</v>
@@ -5301,10 +5301,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C181" s="1">
         <v>13</v>
@@ -5315,10 +5315,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C182" s="1">
         <v>14</v>
@@ -5329,10 +5329,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C183" s="1">
         <v>16</v>
@@ -5343,10 +5343,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C184" s="1">
         <v>18</v>
@@ -5357,10 +5357,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C185" s="1">
         <v>19</v>
@@ -5371,10 +5371,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C186" s="1">
         <v>20</v>
@@ -5385,10 +5385,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C187" s="1">
         <v>21</v>
@@ -5399,10 +5399,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C188" s="1">
         <v>22</v>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C189" s="1">
         <v>23</v>
@@ -5427,10 +5427,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C190" s="1">
         <v>24</v>
@@ -5441,10 +5441,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C191" s="1">
         <v>25</v>
@@ -5455,10 +5455,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C192" s="1">
         <v>26</v>
@@ -5469,10 +5469,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C193" s="1">
         <v>27</v>
@@ -5483,10 +5483,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C194" s="1">
         <v>28</v>
@@ -5497,10 +5497,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C195" s="1">
         <v>30</v>
@@ -5511,10 +5511,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C196" s="1">
         <v>31</v>
@@ -5525,10 +5525,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C197" s="1">
         <v>32</v>
@@ -5539,10 +5539,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C198" s="1">
         <v>35</v>
@@ -5553,10 +5553,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C199" s="1">
         <v>36</v>
@@ -5567,10 +5567,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C200" s="1">
         <v>37</v>
@@ -5581,10 +5581,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C201" s="1">
         <v>38</v>
@@ -5595,10 +5595,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C202" s="1">
         <v>39</v>
@@ -5609,10 +5609,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C203" s="1">
         <v>40</v>
@@ -5623,10 +5623,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C204" s="1">
         <v>41</v>
@@ -5637,10 +5637,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C205" s="1">
         <v>42</v>
@@ -5651,10 +5651,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C206" s="1">
         <v>44</v>
@@ -5665,10 +5665,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C207" s="1">
         <v>45</v>
@@ -5679,10 +5679,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C208" s="1">
         <v>46</v>
@@ -5693,10 +5693,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C209" s="1">
         <v>48</v>
@@ -5707,10 +5707,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D210">
         <v>2026</v>
@@ -5718,10 +5718,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D211">
         <v>2026</v>
@@ -5729,10 +5729,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D212">
         <v>2026</v>
@@ -5740,10 +5740,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D213">
         <v>2026</v>
@@ -5751,10 +5751,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D214">
         <v>2026</v>
@@ -5762,10 +5762,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D215">
         <v>2026</v>
@@ -5773,10 +5773,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C216" s="1">
         <v>1</v>
@@ -5787,10 +5787,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C217" s="1">
         <v>2</v>
@@ -5801,10 +5801,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C218" s="1">
         <v>3</v>
@@ -5815,10 +5815,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C219" s="1">
         <v>4</v>
@@ -5829,10 +5829,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C220" s="1">
         <v>5</v>
@@ -5843,10 +5843,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C221" s="1">
         <v>6</v>
@@ -5857,10 +5857,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C222" s="1">
         <v>8</v>
@@ -5871,10 +5871,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C223" s="1">
         <v>9</v>
@@ -5885,10 +5885,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C224" s="1">
         <v>12</v>
@@ -5899,10 +5899,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C225" s="1">
         <v>13</v>
@@ -5913,10 +5913,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C226" s="1">
         <v>14</v>
@@ -5927,10 +5927,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C227" s="1">
         <v>15</v>
@@ -5941,10 +5941,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C228" s="1">
         <v>16</v>
@@ -5955,10 +5955,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C229" s="1">
         <v>20</v>
@@ -5969,10 +5969,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C230" s="1">
         <v>21</v>
@@ -5983,10 +5983,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C231" s="1">
         <v>22</v>
@@ -5997,10 +5997,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C232" s="1">
         <v>23</v>
@@ -6011,10 +6011,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C233" s="1">
         <v>24</v>
@@ -6025,10 +6025,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C234" s="1">
         <v>25</v>
@@ -6039,10 +6039,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C235" s="1">
         <v>26</v>
@@ -6053,10 +6053,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C236" s="1">
         <v>28</v>
@@ -6067,10 +6067,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C237" s="1">
         <v>29</v>
@@ -6081,10 +6081,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C238" s="1">
         <v>30</v>
@@ -6095,10 +6095,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C239" s="1">
         <v>31</v>
@@ -6109,10 +6109,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C240" s="1">
         <v>32</v>
@@ -6123,10 +6123,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C241" s="1">
         <v>33</v>
@@ -6137,10 +6137,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C242" s="1">
         <v>34</v>
@@ -6151,10 +6151,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C243" s="1">
         <v>35</v>
@@ -6165,10 +6165,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C244" s="1">
         <v>36</v>
@@ -6179,10 +6179,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C245" s="1">
         <v>37</v>
@@ -6193,10 +6193,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C246" s="1">
         <v>38</v>
@@ -6207,10 +6207,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C247" s="1">
         <v>39</v>
@@ -6221,10 +6221,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C248" s="1">
         <v>41</v>
@@ -6235,10 +6235,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C249" s="1">
         <v>42</v>
@@ -6249,10 +6249,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C250" s="1">
         <v>43</v>
@@ -6263,10 +6263,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C251" s="1">
         <v>44</v>
@@ -6277,10 +6277,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D252">
         <v>2026</v>
@@ -6288,10 +6288,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D253">
         <v>2026</v>
@@ -6299,10 +6299,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D254">
         <v>2026</v>
@@ -6310,10 +6310,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D255">
         <v>2026</v>
@@ -6321,10 +6321,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D256">
         <v>2026</v>
@@ -6332,10 +6332,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D257">
         <v>2026</v>
@@ -6343,10 +6343,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D258">
         <v>2026</v>
@@ -6354,10 +6354,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C259" s="1">
         <v>1</v>
@@ -6368,10 +6368,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C260" s="1">
         <v>2</v>
@@ -6382,10 +6382,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C261" s="1">
         <v>3</v>
@@ -6396,10 +6396,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C262" s="1">
         <v>4</v>
@@ -6410,10 +6410,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C263" s="1">
         <v>5</v>
@@ -6424,10 +6424,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C264" s="1">
         <v>6</v>
@@ -6438,10 +6438,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C265" s="1">
         <v>7</v>
@@ -6452,10 +6452,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C266" s="1">
         <v>8</v>
@@ -6466,10 +6466,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C267" s="1">
         <v>9</v>
@@ -6480,10 +6480,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C268" s="1">
         <v>10</v>
@@ -6494,10 +6494,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C269" s="1">
         <v>11</v>
@@ -6508,10 +6508,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C270" s="1">
         <v>12</v>
@@ -6522,10 +6522,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C271" s="1">
         <v>13</v>
@@ -6536,10 +6536,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C272" s="1">
         <v>14</v>
@@ -6550,10 +6550,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C273" s="1">
         <v>15</v>
@@ -6564,10 +6564,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C274" s="1">
         <v>16</v>
@@ -6578,10 +6578,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C275" s="1">
         <v>17</v>
@@ -6592,10 +6592,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C276" s="1">
         <v>18</v>
@@ -6606,10 +6606,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C277" s="1">
         <v>19</v>
@@ -6620,10 +6620,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C278" s="1">
         <v>20</v>
@@ -6634,10 +6634,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C279" s="1">
         <v>21</v>
@@ -6648,10 +6648,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C280" s="1">
         <v>23</v>
@@ -6662,10 +6662,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C281" s="1">
         <v>24</v>
@@ -6676,10 +6676,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C282" s="1">
         <v>28</v>
@@ -6690,10 +6690,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C283" s="1">
         <v>30</v>
@@ -6704,10 +6704,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C284" s="1">
         <v>31</v>
@@ -6718,10 +6718,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C285" s="1">
         <v>32</v>
@@ -6732,10 +6732,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C286" s="1">
         <v>33</v>
@@ -6746,10 +6746,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C287" s="1">
         <v>34</v>
@@ -6760,10 +6760,10 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C288" s="1">
         <v>35</v>
@@ -6774,10 +6774,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C289" s="1">
         <v>36</v>
@@ -6788,10 +6788,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C290" s="1">
         <v>37</v>
@@ -6802,10 +6802,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C291" s="1">
         <v>38</v>
@@ -6816,10 +6816,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C292" s="1">
         <v>39</v>
@@ -6830,10 +6830,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C293" s="1">
         <v>41</v>
@@ -6844,10 +6844,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C294" s="1">
         <v>42</v>
@@ -6858,10 +6858,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C295" s="1">
         <v>44</v>
@@ -6872,10 +6872,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C296" s="1">
         <v>45</v>
@@ -6886,10 +6886,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C297" s="1">
         <v>46</v>
@@ -6900,10 +6900,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="D298">
         <v>2026</v>
@@ -6911,10 +6911,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="D299">
         <v>2026</v>
@@ -6922,10 +6922,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="D300">
         <v>2026</v>
@@ -6933,10 +6933,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="D301">
         <v>2026</v>
@@ -6944,10 +6944,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="D302">
         <v>2026</v>
@@ -6955,10 +6955,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C303" s="1">
         <v>1</v>
@@ -6969,10 +6969,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C304" s="1">
         <v>2</v>
@@ -6983,10 +6983,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C305" s="1">
         <v>4</v>
@@ -6997,10 +6997,10 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C306" s="1">
         <v>5</v>
@@ -7011,10 +7011,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C307" s="1">
         <v>7</v>
@@ -7025,10 +7025,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C308" s="1">
         <v>10</v>
@@ -7039,10 +7039,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C309" s="1">
         <v>11</v>
@@ -7053,10 +7053,10 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C310" s="1">
         <v>12</v>
@@ -7067,10 +7067,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C311" s="1">
         <v>14</v>
@@ -7081,10 +7081,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C312" s="1">
         <v>15</v>
@@ -7095,10 +7095,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C313" s="1">
         <v>17</v>
@@ -7109,10 +7109,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C314" s="1">
         <v>18</v>
@@ -7123,10 +7123,10 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C315" s="1">
         <v>19</v>
@@ -7137,10 +7137,10 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C316" s="1">
         <v>20</v>
@@ -7151,10 +7151,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C317" s="1">
         <v>21</v>
@@ -7165,10 +7165,10 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C318" s="1">
         <v>22</v>
@@ -7179,10 +7179,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C319" s="1">
         <v>25</v>
@@ -7193,10 +7193,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C320" s="1">
         <v>26</v>
@@ -7207,10 +7207,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C321" s="1">
         <v>27</v>
@@ -7221,10 +7221,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C322" s="1">
         <v>28</v>
@@ -7235,10 +7235,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C323" s="1">
         <v>29</v>
@@ -7249,10 +7249,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C324" s="1">
         <v>30</v>
@@ -7263,10 +7263,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C325" s="1">
         <v>31</v>
@@ -7277,10 +7277,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C326" s="1">
         <v>32</v>
@@ -7291,10 +7291,10 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C327" s="1">
         <v>33</v>
@@ -7305,10 +7305,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C328" s="1">
         <v>34</v>
@@ -7319,10 +7319,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C329" s="1">
         <v>36</v>
@@ -7333,10 +7333,10 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C330" s="1">
         <v>37</v>
@@ -7347,10 +7347,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C331" s="1">
         <v>39</v>
@@ -7361,10 +7361,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C332" s="1">
         <v>40</v>
@@ -7375,10 +7375,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C333" s="1">
         <v>42</v>
@@ -7389,10 +7389,10 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C334" s="1">
         <v>44</v>
@@ -7403,10 +7403,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C335" s="1">
         <v>45</v>
@@ -7417,10 +7417,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C336" s="1">
         <v>46</v>
@@ -7431,10 +7431,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C337" s="1">
         <v>48</v>
@@ -7445,10 +7445,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C338" s="1">
         <v>50</v>
@@ -7459,10 +7459,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D339">
         <v>2026</v>
@@ -7470,10 +7470,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D340">
         <v>2026</v>
@@ -7481,10 +7481,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D341">
         <v>2026</v>
@@ -7492,10 +7492,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D342">
         <v>2026</v>
@@ -7503,10 +7503,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D343">
         <v>2026</v>
@@ -7514,10 +7514,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D344">
         <v>2026</v>
@@ -7525,10 +7525,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D345">
         <v>2026</v>
@@ -7536,10 +7536,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D346">
         <v>2026</v>
@@ -7547,10 +7547,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C347" s="1">
         <v>1</v>
@@ -7561,10 +7561,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C348" s="1">
         <v>2</v>
@@ -7575,10 +7575,10 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C349" s="1">
         <v>3</v>
@@ -7589,10 +7589,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C350" s="1">
         <v>4</v>
@@ -7603,10 +7603,10 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C351" s="1">
         <v>5</v>
@@ -7617,10 +7617,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C352" s="1">
         <v>6</v>
@@ -7631,10 +7631,10 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C353" s="1">
         <v>7</v>
@@ -7645,10 +7645,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C354" s="1">
         <v>9</v>
@@ -7659,10 +7659,10 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C355" s="1">
         <v>11</v>
@@ -7673,10 +7673,10 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C356" s="1">
         <v>12</v>
@@ -7687,10 +7687,10 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C357" s="1">
         <v>13</v>
@@ -7701,10 +7701,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C358" s="1">
         <v>14</v>
@@ -7715,10 +7715,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C359" s="1">
         <v>15</v>
@@ -7729,10 +7729,10 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C360" s="1">
         <v>16</v>
@@ -7743,10 +7743,10 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C361" s="1">
         <v>17</v>
@@ -7757,10 +7757,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C362" s="1">
         <v>18</v>
@@ -7771,10 +7771,10 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C363" s="1">
         <v>19</v>
@@ -7785,10 +7785,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C364" s="1">
         <v>20</v>
@@ -7799,10 +7799,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C365" s="1">
         <v>21</v>
@@ -7813,10 +7813,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C366" s="1">
         <v>22</v>
@@ -7827,10 +7827,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C367" s="1">
         <v>23</v>
@@ -7841,10 +7841,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C368" s="1">
         <v>24</v>
@@ -7855,10 +7855,10 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C369" s="1">
         <v>26</v>
@@ -7869,10 +7869,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C370" s="1">
         <v>27</v>
@@ -7883,10 +7883,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C371" s="1">
         <v>28</v>
@@ -7897,10 +7897,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C372" s="1">
         <v>29</v>
@@ -7911,10 +7911,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C373" s="1">
         <v>30</v>
@@ -7925,10 +7925,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C374" s="1">
         <v>31</v>
@@ -7939,10 +7939,10 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C375" s="1">
         <v>32</v>
@@ -7953,10 +7953,10 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C376" s="1">
         <v>33</v>
@@ -7967,10 +7967,10 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C377" s="1">
         <v>35</v>
@@ -7981,10 +7981,10 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C378" s="1">
         <v>36</v>
@@ -7995,10 +7995,10 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C379" s="1">
         <v>37</v>
@@ -8009,10 +8009,10 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C380" s="1">
         <v>38</v>
@@ -8023,10 +8023,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C381" s="1">
         <v>39</v>
@@ -8037,10 +8037,10 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C382" s="1">
         <v>41</v>
@@ -8051,10 +8051,10 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C383" s="1">
         <v>42</v>
@@ -8065,10 +8065,10 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C384" s="1">
         <v>44</v>
@@ -8079,10 +8079,10 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C385" s="1">
         <v>46</v>
@@ -8093,10 +8093,10 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="D386">
         <v>2026</v>
@@ -8104,10 +8104,10 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="D387">
         <v>2026</v>
@@ -8115,10 +8115,10 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="D388">
         <v>2026</v>
@@ -8126,10 +8126,10 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="D389">
         <v>2026</v>
@@ -8137,10 +8137,10 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="D390">
         <v>2026</v>
@@ -8148,10 +8148,10 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C391" s="1">
         <v>1</v>
@@ -8162,10 +8162,10 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C392" s="1">
         <v>2</v>
@@ -8176,10 +8176,10 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C393" s="1">
         <v>3</v>
@@ -8190,10 +8190,10 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C394" s="1">
         <v>4</v>
@@ -8204,10 +8204,10 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C395" s="1">
         <v>6</v>
@@ -8218,10 +8218,10 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C396" s="1">
         <v>7</v>
@@ -8232,10 +8232,10 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C397" s="1">
         <v>10</v>
@@ -8246,10 +8246,10 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C398" s="1">
         <v>11</v>
@@ -8260,10 +8260,10 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C399" s="1">
         <v>12</v>
@@ -8274,10 +8274,10 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C400" s="1">
         <v>13</v>
@@ -8288,10 +8288,10 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C401" s="1">
         <v>14</v>
@@ -8302,10 +8302,10 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C402" s="1">
         <v>15</v>
@@ -8316,10 +8316,10 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C403" s="1">
         <v>16</v>
@@ -8330,10 +8330,10 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C404" s="1">
         <v>17</v>
@@ -8344,10 +8344,10 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C405" s="1">
         <v>18</v>
@@ -8358,10 +8358,10 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C406" s="1">
         <v>19</v>
@@ -8372,10 +8372,10 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C407" s="1">
         <v>20</v>
@@ -8386,10 +8386,10 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C408" s="1">
         <v>21</v>
@@ -8400,10 +8400,10 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C409" s="1">
         <v>23</v>
@@ -8414,10 +8414,10 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C410" s="1">
         <v>24</v>
@@ -8428,10 +8428,10 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C411" s="1">
         <v>25</v>
@@ -8442,10 +8442,10 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C412" s="1">
         <v>26</v>
@@ -8456,10 +8456,10 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C413" s="1">
         <v>27</v>
@@ -8470,10 +8470,10 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C414" s="1">
         <v>28</v>
@@ -8484,10 +8484,10 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C415" s="1">
         <v>30</v>
@@ -8498,10 +8498,10 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C416" s="1">
         <v>31</v>
@@ -8512,10 +8512,10 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C417" s="1">
         <v>32</v>
@@ -8526,10 +8526,10 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C418" s="1">
         <v>33</v>
@@ -8540,10 +8540,10 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C419" s="1">
         <v>34</v>
@@ -8554,10 +8554,10 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C420" s="1">
         <v>35</v>
@@ -8568,10 +8568,10 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C421" s="1">
         <v>36</v>
@@ -8582,10 +8582,10 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C422" s="1">
         <v>37</v>
@@ -8596,10 +8596,10 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C423" s="1">
         <v>38</v>
@@ -8610,10 +8610,10 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C424" s="1">
         <v>41</v>
@@ -8624,10 +8624,10 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C425" s="1">
         <v>42</v>
@@ -8638,10 +8638,10 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C426" s="1">
         <v>43</v>
@@ -8652,10 +8652,10 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C427" s="1">
         <v>44</v>
@@ -8666,10 +8666,10 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D428">
         <v>2026</v>
@@ -8677,10 +8677,10 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D429">
         <v>2026</v>
@@ -8688,10 +8688,10 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D430">
         <v>2026</v>
@@ -8699,10 +8699,10 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D431">
         <v>2026</v>
@@ -8710,10 +8710,10 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D432">
         <v>2026</v>
@@ -8721,10 +8721,10 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C433" s="1">
         <v>1</v>
@@ -8735,10 +8735,10 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C434" s="1">
         <v>2</v>
@@ -8749,10 +8749,10 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C435" s="1">
         <v>3</v>
@@ -8763,10 +8763,10 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C436" s="1">
         <v>6</v>
@@ -8777,10 +8777,10 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C437" s="1">
         <v>7</v>
@@ -8791,10 +8791,10 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C438" s="1">
         <v>8</v>
@@ -8805,10 +8805,10 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C439" s="1">
         <v>10</v>
@@ -8819,10 +8819,10 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C440" s="1">
         <v>11</v>
@@ -8833,10 +8833,10 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C441" s="1">
         <v>12</v>
@@ -8847,10 +8847,10 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C442" s="1">
         <v>15</v>
@@ -8861,10 +8861,10 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C443" s="1">
         <v>16</v>
@@ -8875,10 +8875,10 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C444" s="1">
         <v>17</v>
@@ -8889,10 +8889,10 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C445" s="1">
         <v>18</v>
@@ -8903,10 +8903,10 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C446" s="1">
         <v>19</v>
@@ -8917,10 +8917,10 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C447" s="1">
         <v>20</v>
@@ -8931,10 +8931,10 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C448" s="1">
         <v>21</v>
@@ -8945,10 +8945,10 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C449" s="1">
         <v>22</v>
@@ -8959,10 +8959,10 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C450" s="1">
         <v>23</v>
@@ -8973,10 +8973,10 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C451" s="1">
         <v>24</v>
@@ -8987,10 +8987,10 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C452" s="1">
         <v>25</v>
@@ -9001,10 +9001,10 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C453" s="1">
         <v>26</v>
@@ -9015,10 +9015,10 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C454" s="1">
         <v>29</v>
@@ -9029,10 +9029,10 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C455" s="1">
         <v>30</v>
@@ -9043,10 +9043,10 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C456" s="1">
         <v>31</v>
@@ -9057,10 +9057,10 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C457" s="1">
         <v>32</v>
@@ -9071,10 +9071,10 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C458" s="1">
         <v>35</v>
@@ -9085,10 +9085,10 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C459" s="1">
         <v>36</v>
@@ -9099,10 +9099,10 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C460" s="1">
         <v>37</v>
@@ -9113,10 +9113,10 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C461" s="1">
         <v>39</v>
@@ -9127,10 +9127,10 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C462" s="1">
         <v>42</v>
@@ -9141,10 +9141,10 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C463" s="1">
         <v>43</v>
@@ -9155,10 +9155,10 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C464" s="1">
         <v>44</v>
@@ -9169,10 +9169,10 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C465" s="1">
         <v>45</v>
@@ -9183,10 +9183,10 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C466" s="1">
         <v>46</v>
@@ -9197,10 +9197,10 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D467">
         <v>2026</v>
@@ -9208,10 +9208,10 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D468">
         <v>2026</v>
@@ -9219,10 +9219,10 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D469">
         <v>2026</v>
@@ -9230,10 +9230,10 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D470">
         <v>2026</v>
@@ -9241,10 +9241,10 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D471">
         <v>2026</v>
@@ -9252,10 +9252,10 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D472">
         <v>2026</v>
@@ -9263,10 +9263,10 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D473">
         <v>2026</v>
@@ -9274,10 +9274,10 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D474">
         <v>2026</v>
@@ -9285,10 +9285,10 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D475">
         <v>2026</v>
@@ -9296,10 +9296,10 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C476" s="1">
         <v>2</v>
@@ -9310,10 +9310,10 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C477" s="1">
         <v>3</v>
@@ -9324,10 +9324,10 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C478" s="1">
         <v>4</v>
@@ -9338,10 +9338,10 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C479" s="1">
         <v>5</v>
@@ -9352,10 +9352,10 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C480" s="1">
         <v>6</v>
@@ -9366,10 +9366,10 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C481" s="1">
         <v>7</v>
@@ -9380,10 +9380,10 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C482" s="1">
         <v>8</v>
@@ -9394,10 +9394,10 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C483" s="1">
         <v>9</v>
@@ -9408,10 +9408,10 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C484" s="1">
         <v>10</v>
@@ -9422,10 +9422,10 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C485" s="1">
         <v>11</v>
@@ -9436,10 +9436,10 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C486" s="1">
         <v>12</v>
@@ -9450,10 +9450,10 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C487" s="1">
         <v>14</v>
@@ -9464,10 +9464,10 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C488" s="1">
         <v>15</v>
@@ -9478,10 +9478,10 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C489" s="1">
         <v>16</v>
@@ -9492,10 +9492,10 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C490" s="1">
         <v>17</v>
@@ -9506,10 +9506,10 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C491" s="1">
         <v>18</v>
@@ -9520,10 +9520,10 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C492" s="1">
         <v>19</v>
@@ -9534,10 +9534,10 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C493" s="1">
         <v>20</v>
@@ -9548,10 +9548,10 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C494" s="1">
         <v>21</v>
@@ -9562,10 +9562,10 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C495" s="1">
         <v>22</v>
@@ -9576,10 +9576,10 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C496" s="1">
         <v>24</v>
@@ -9590,10 +9590,10 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C497" s="1">
         <v>25</v>
@@ -9604,10 +9604,10 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C498" s="1">
         <v>26</v>
@@ -9618,10 +9618,10 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C499" s="1">
         <v>28</v>
@@ -9632,10 +9632,10 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C500" s="1">
         <v>30</v>
@@ -9646,10 +9646,10 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C501" s="1">
         <v>31</v>
@@ -9660,10 +9660,10 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C502" s="1">
         <v>32</v>
@@ -9674,10 +9674,10 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C503" s="1">
         <v>33</v>
@@ -9688,10 +9688,10 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C504" s="1">
         <v>34</v>
@@ -9702,10 +9702,10 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C505" s="1">
         <v>35</v>
@@ -9716,10 +9716,10 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C506" s="1">
         <v>36</v>
@@ -9730,10 +9730,10 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C507" s="1">
         <v>37</v>
@@ -9744,10 +9744,10 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C508" s="1">
         <v>38</v>
@@ -9758,10 +9758,10 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C509" s="1">
         <v>41</v>
@@ -9772,10 +9772,10 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C510" s="1">
         <v>44</v>
@@ -9786,10 +9786,10 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C511" s="1">
         <v>45</v>
@@ -9800,10 +9800,10 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C512" s="1">
         <v>46</v>
@@ -9814,10 +9814,10 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C513" s="1">
         <v>47</v>
@@ -9828,10 +9828,10 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D514">
         <v>2026</v>
@@ -9839,10 +9839,10 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D515">
         <v>2026</v>
@@ -9850,10 +9850,10 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D516">
         <v>2026</v>
@@ -9861,10 +9861,10 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D517">
         <v>2026</v>
@@ -9872,10 +9872,10 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C518" s="1">
         <v>1</v>
@@ -9886,10 +9886,10 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C519" s="1">
         <v>2</v>
@@ -9900,10 +9900,10 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C520" s="1">
         <v>4</v>
@@ -9914,10 +9914,10 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C521" s="1">
         <v>5</v>
@@ -9928,10 +9928,10 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C522" s="1">
         <v>6</v>
@@ -9942,10 +9942,10 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C523" s="1">
         <v>7</v>
@@ -9956,10 +9956,10 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C524" s="1">
         <v>8</v>
@@ -9970,10 +9970,10 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C525" s="1">
         <v>9</v>
@@ -9984,10 +9984,10 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C526" s="1">
         <v>12</v>
@@ -9998,10 +9998,10 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C527" s="1">
         <v>13</v>
@@ -10012,10 +10012,10 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C528" s="1">
         <v>14</v>
@@ -10026,10 +10026,10 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C529" s="1">
         <v>16</v>
@@ -10040,10 +10040,10 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C530" s="1">
         <v>17</v>
@@ -10054,10 +10054,10 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C531" s="1">
         <v>18</v>
@@ -10068,10 +10068,10 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C532" s="1">
         <v>19</v>
@@ -10082,10 +10082,10 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C533" s="1">
         <v>21</v>
@@ -10096,10 +10096,10 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C534" s="1">
         <v>22</v>
@@ -10110,10 +10110,10 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C535" s="1">
         <v>24</v>
@@ -10124,10 +10124,10 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C536" s="1">
         <v>25</v>
@@ -10138,10 +10138,10 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C537" s="1">
         <v>27</v>
@@ -10152,10 +10152,10 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C538" s="1">
         <v>28</v>
@@ -10166,10 +10166,10 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C539" s="1">
         <v>29</v>
@@ -10180,10 +10180,10 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C540" s="1">
         <v>30</v>
@@ -10194,10 +10194,10 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C541" s="1">
         <v>31</v>
@@ -10208,10 +10208,10 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C542" s="1">
         <v>33</v>
@@ -10222,10 +10222,10 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C543" s="1">
         <v>34</v>
@@ -10236,10 +10236,10 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C544" s="1">
         <v>35</v>
@@ -10250,10 +10250,10 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C545" s="1">
         <v>36</v>
@@ -10264,10 +10264,10 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C546" s="1">
         <v>37</v>
@@ -10278,10 +10278,10 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C547" s="1">
         <v>38</v>
@@ -10292,10 +10292,10 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C548" s="1">
         <v>40</v>
@@ -10306,10 +10306,10 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C549" s="1">
         <v>42</v>
@@ -10320,10 +10320,10 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C550" s="1">
         <v>43</v>
@@ -10334,10 +10334,10 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C551" s="1">
         <v>44</v>
@@ -10348,10 +10348,10 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C552" s="1">
         <v>45</v>
@@ -10362,10 +10362,10 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C553" s="1">
         <v>48</v>
@@ -10376,10 +10376,10 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C554" s="1">
         <v>49</v>
@@ -10390,10 +10390,10 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C555" s="1">
         <v>50</v>
@@ -10404,10 +10404,10 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D556">
         <v>2026</v>
@@ -10415,10 +10415,10 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D557">
         <v>2026</v>
@@ -10426,10 +10426,10 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D558">
         <v>2026</v>
@@ -10437,10 +10437,10 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D559">
         <v>2026</v>
@@ -10448,10 +10448,10 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C560" s="1">
         <v>1</v>
@@ -10462,10 +10462,10 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C561" s="1">
         <v>2</v>
@@ -10476,10 +10476,10 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C562" s="1">
         <v>3</v>
@@ -10490,10 +10490,10 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C563" s="1">
         <v>5</v>
@@ -10504,10 +10504,10 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C564" s="1">
         <v>7</v>
@@ -10518,10 +10518,10 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C565" s="1">
         <v>12</v>
@@ -10532,10 +10532,10 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C566" s="1">
         <v>13</v>
@@ -10546,10 +10546,10 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C567" s="1">
         <v>14</v>
@@ -10560,10 +10560,10 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C568" s="1">
         <v>15</v>
@@ -10574,10 +10574,10 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C569" s="1">
         <v>16</v>
@@ -10588,10 +10588,10 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C570" s="1">
         <v>17</v>
@@ -10602,10 +10602,10 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C571" s="1">
         <v>18</v>
@@ -10616,10 +10616,10 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C572" s="1">
         <v>19</v>
@@ -10630,10 +10630,10 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C573" s="1">
         <v>21</v>
@@ -10644,10 +10644,10 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C574" s="1">
         <v>22</v>
@@ -10658,10 +10658,10 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C575" s="1">
         <v>23</v>
@@ -10672,10 +10672,10 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C576" s="1">
         <v>24</v>
@@ -10686,10 +10686,10 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C577" s="1">
         <v>25</v>
@@ -10700,10 +10700,10 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C578" s="1">
         <v>26</v>
@@ -10714,10 +10714,10 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C579" s="1">
         <v>28</v>
@@ -10728,10 +10728,10 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C580" s="1">
         <v>29</v>
@@ -10742,10 +10742,10 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C581" s="1">
         <v>30</v>
@@ -10756,10 +10756,10 @@
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C582" s="1">
         <v>31</v>
@@ -10770,10 +10770,10 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C583" s="1">
         <v>32</v>
@@ -10784,10 +10784,10 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C584" s="1">
         <v>34</v>
@@ -10798,10 +10798,10 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C585" s="1">
         <v>35</v>
@@ -10812,10 +10812,10 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C586" s="1">
         <v>36</v>
@@ -10826,10 +10826,10 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C587" s="1">
         <v>37</v>
@@ -10840,10 +10840,10 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C588" s="1">
         <v>38</v>
@@ -10854,10 +10854,10 @@
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C589" s="1">
         <v>40</v>
@@ -10868,10 +10868,10 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C590" s="1">
         <v>41</v>
@@ -10882,10 +10882,10 @@
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C591" s="1">
         <v>42</v>
@@ -10896,10 +10896,10 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C592" s="1">
         <v>44</v>
@@ -10910,10 +10910,10 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C593" s="1">
         <v>47</v>
@@ -10924,10 +10924,10 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C594" s="1">
         <v>48</v>
@@ -10938,10 +10938,10 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C595" s="1">
         <v>49</v>
@@ -10952,10 +10952,10 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C596" s="1">
         <v>50</v>
@@ -10966,10 +10966,10 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D597">
         <v>2026</v>
@@ -10977,10 +10977,10 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D598">
         <v>2026</v>
@@ -10988,10 +10988,10 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D599">
         <v>2026</v>
@@ -10999,10 +10999,10 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D600">
         <v>2026</v>
@@ -11010,10 +11010,10 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D601">
         <v>2026</v>
@@ -11021,10 +11021,10 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C602" s="1">
         <v>1</v>
@@ -11035,10 +11035,10 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C603" s="1">
         <v>2</v>
@@ -11049,10 +11049,10 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C604" s="1">
         <v>4</v>
@@ -11063,10 +11063,10 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C605" s="1">
         <v>5</v>
@@ -11077,10 +11077,10 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C606" s="1">
         <v>6</v>
@@ -11091,10 +11091,10 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C607" s="1">
         <v>7</v>
@@ -11105,10 +11105,10 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C608" s="1">
         <v>8</v>
@@ -11119,10 +11119,10 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C609" s="1">
         <v>10</v>
@@ -11133,10 +11133,10 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C610" s="1">
         <v>11</v>
@@ -11147,10 +11147,10 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C611" s="1">
         <v>12</v>
@@ -11161,10 +11161,10 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C612" s="1">
         <v>13</v>
@@ -11175,10 +11175,10 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C613" s="1">
         <v>14</v>
@@ -11189,10 +11189,10 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C614" s="1">
         <v>15</v>
@@ -11203,10 +11203,10 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C615" s="1">
         <v>16</v>
@@ -11217,10 +11217,10 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C616" s="1">
         <v>17</v>
@@ -11231,10 +11231,10 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C617" s="1">
         <v>18</v>
@@ -11245,10 +11245,10 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C618" s="1">
         <v>19</v>
@@ -11259,10 +11259,10 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C619" s="1">
         <v>20</v>
@@ -11273,10 +11273,10 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C620" s="1">
         <v>22</v>
@@ -11287,10 +11287,10 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C621" s="1">
         <v>23</v>
@@ -11301,10 +11301,10 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C622" s="1">
         <v>24</v>
@@ -11315,10 +11315,10 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C623" s="1">
         <v>25</v>
@@ -11329,10 +11329,10 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C624" s="1">
         <v>26</v>
@@ -11343,10 +11343,10 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C625" s="1">
         <v>28</v>
@@ -11357,10 +11357,10 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C626" s="1">
         <v>30</v>
@@ -11371,10 +11371,10 @@
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C627" s="1">
         <v>32</v>
@@ -11385,10 +11385,10 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C628" s="1">
         <v>33</v>
@@ -11399,10 +11399,10 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C629" s="1">
         <v>34</v>
@@ -11413,10 +11413,10 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C630" s="1">
         <v>35</v>
@@ -11427,10 +11427,10 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C631" s="1">
         <v>38</v>
@@ -11441,10 +11441,10 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C632" s="1">
         <v>40</v>
@@ -11455,10 +11455,10 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C633" s="1">
         <v>43</v>
@@ -11469,10 +11469,10 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C634" s="1">
         <v>44</v>
@@ -11483,10 +11483,10 @@
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C635" s="1">
         <v>45</v>
@@ -11497,10 +11497,10 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C636" s="1">
         <v>46</v>
@@ -11511,10 +11511,10 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C637" s="1">
         <v>47</v>
@@ -11525,10 +11525,10 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D638">
         <v>2026</v>
@@ -11536,10 +11536,10 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D639">
         <v>2026</v>
@@ -11547,10 +11547,10 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D640">
         <v>2026</v>
@@ -11558,10 +11558,10 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D641">
         <v>2026</v>
@@ -11569,10 +11569,10 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D642">
         <v>2026</v>
@@ -11580,10 +11580,10 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D643">
         <v>2026</v>
@@ -11591,10 +11591,10 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C644" s="1">
         <v>1</v>
@@ -11605,10 +11605,10 @@
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C645" s="1">
         <v>2</v>
@@ -11619,10 +11619,10 @@
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C646" s="1">
         <v>3</v>
@@ -11633,10 +11633,10 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C647" s="1">
         <v>4</v>
@@ -11647,10 +11647,10 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C648" s="1">
         <v>5</v>
@@ -11661,10 +11661,10 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C649" s="1">
         <v>6</v>
@@ -11675,10 +11675,10 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C650" s="1">
         <v>7</v>
@@ -11689,10 +11689,10 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C651" s="1">
         <v>8</v>
@@ -11703,10 +11703,10 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C652" s="1">
         <v>11</v>
@@ -11717,10 +11717,10 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C653" s="1">
         <v>12</v>
@@ -11731,10 +11731,10 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C654" s="1">
         <v>14</v>
@@ -11745,10 +11745,10 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C655" s="1">
         <v>15</v>
@@ -11759,10 +11759,10 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C656" s="1">
         <v>16</v>
@@ -11773,10 +11773,10 @@
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C657" s="1">
         <v>17</v>
@@ -11787,10 +11787,10 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C658" s="1">
         <v>18</v>
@@ -11801,10 +11801,10 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C659" s="1">
         <v>19</v>
@@ -11815,10 +11815,10 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C660" s="1">
         <v>20</v>
@@ -11829,10 +11829,10 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C661" s="1">
         <v>21</v>
@@ -11843,10 +11843,10 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C662" s="1">
         <v>22</v>
@@ -11857,10 +11857,10 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C663" s="1">
         <v>23</v>
@@ -11871,10 +11871,10 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C664" s="1">
         <v>24</v>
@@ -11885,10 +11885,10 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C665" s="1">
         <v>26</v>
@@ -11899,10 +11899,10 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C666" s="1">
         <v>27</v>
@@ -11913,10 +11913,10 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C667" s="1">
         <v>28</v>
@@ -11927,10 +11927,10 @@
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C668" s="1">
         <v>29</v>
@@ -11941,10 +11941,10 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C669" s="1">
         <v>30</v>
@@ -11955,10 +11955,10 @@
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C670" s="1">
         <v>33</v>
@@ -11969,10 +11969,10 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C671" s="1">
         <v>34</v>
@@ -11983,10 +11983,10 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C672" s="1">
         <v>36</v>
@@ -11997,10 +11997,10 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C673" s="1">
         <v>37</v>
@@ -12011,10 +12011,10 @@
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C674" s="1">
         <v>40</v>
@@ -12025,10 +12025,10 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C675" s="1">
         <v>41</v>
@@ -12039,10 +12039,10 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C676" s="1">
         <v>43</v>
@@ -12053,10 +12053,10 @@
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C677" s="1">
         <v>44</v>
@@ -12067,10 +12067,10 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C678" s="1">
         <v>45</v>
@@ -12081,10 +12081,10 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D679">
         <v>2026</v>
@@ -12092,10 +12092,10 @@
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D680">
         <v>2026</v>
@@ -12103,10 +12103,10 @@
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D681">
         <v>2026</v>
@@ -12114,10 +12114,10 @@
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D682">
         <v>2026</v>
@@ -12125,10 +12125,10 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D683">
         <v>2026</v>
@@ -12136,10 +12136,10 @@
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D684">
         <v>2026</v>
@@ -12147,10 +12147,10 @@
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D685">
         <v>2026</v>
@@ -12158,10 +12158,10 @@
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D686">
         <v>2026</v>
@@ -12169,10 +12169,10 @@
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D687">
         <v>2026</v>
@@ -12180,10 +12180,10 @@
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C688" s="1">
         <v>2</v>
@@ -12194,10 +12194,10 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C689" s="1">
         <v>3</v>
@@ -12208,10 +12208,10 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C690" s="1">
         <v>6</v>
@@ -12222,10 +12222,10 @@
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C691" s="1">
         <v>7</v>
@@ -12236,10 +12236,10 @@
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C692" s="1">
         <v>8</v>
@@ -12250,10 +12250,10 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C693" s="1">
         <v>9</v>
@@ -12264,10 +12264,10 @@
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C694" s="1">
         <v>10</v>
@@ -12278,10 +12278,10 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C695" s="1">
         <v>11</v>
@@ -12292,10 +12292,10 @@
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C696" s="1">
         <v>13</v>
@@ -12306,10 +12306,10 @@
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C697" s="1">
         <v>14</v>
@@ -12320,10 +12320,10 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C698" s="1">
         <v>15</v>
@@ -12334,10 +12334,10 @@
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C699" s="1">
         <v>16</v>
@@ -12348,10 +12348,10 @@
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C700" s="1">
         <v>17</v>
@@ -12362,10 +12362,10 @@
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C701" s="1">
         <v>19</v>
@@ -12376,10 +12376,10 @@
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C702" s="1">
         <v>22</v>
@@ -12390,10 +12390,10 @@
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C703" s="1">
         <v>23</v>
@@ -12404,10 +12404,10 @@
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C704" s="1">
         <v>24</v>
@@ -12418,10 +12418,10 @@
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C705" s="1">
         <v>25</v>
@@ -12432,10 +12432,10 @@
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C706" s="1">
         <v>26</v>
@@ -12446,10 +12446,10 @@
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C707" s="1">
         <v>27</v>
@@ -12460,10 +12460,10 @@
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C708" s="1">
         <v>28</v>
@@ -12474,10 +12474,10 @@
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C709" s="1">
         <v>29</v>
@@ -12488,10 +12488,10 @@
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C710" s="1">
         <v>30</v>
@@ -12502,10 +12502,10 @@
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C711" s="1">
         <v>31</v>
@@ -12516,10 +12516,10 @@
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C712" s="1">
         <v>32</v>
@@ -12530,10 +12530,10 @@
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C713" s="1">
         <v>33</v>
@@ -12544,10 +12544,10 @@
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C714" s="1">
         <v>34</v>
@@ -12558,10 +12558,10 @@
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C715" s="1">
         <v>35</v>
@@ -12572,10 +12572,10 @@
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C716" s="1">
         <v>37</v>
@@ -12586,10 +12586,10 @@
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C717" s="1">
         <v>38</v>
@@ -12600,10 +12600,10 @@
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C718" s="1">
         <v>41</v>
@@ -12614,10 +12614,10 @@
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C719" s="1">
         <v>42</v>
@@ -12628,10 +12628,10 @@
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C720" s="1">
         <v>43</v>
@@ -12642,10 +12642,10 @@
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C721" s="1">
         <v>44</v>
@@ -12656,10 +12656,10 @@
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C722" s="1">
         <v>45</v>
@@ -12670,10 +12670,10 @@
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C723" s="1">
         <v>46</v>
@@ -12684,10 +12684,10 @@
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D724">
         <v>2026</v>
@@ -12695,10 +12695,10 @@
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D725">
         <v>2026</v>
@@ -12706,10 +12706,10 @@
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D726">
         <v>2026</v>
@@ -12717,10 +12717,10 @@
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D727">
         <v>2026</v>
@@ -12728,10 +12728,10 @@
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D728">
         <v>2026</v>
@@ -12739,10 +12739,10 @@
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D729">
         <v>2026</v>
@@ -12750,10 +12750,10 @@
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D730">
         <v>2026</v>
@@ -12761,10 +12761,10 @@
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D731">
         <v>2026</v>
@@ -12772,10 +12772,10 @@
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D732">
         <v>2026</v>
@@ -12783,10 +12783,10 @@
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D733">
         <v>2026</v>
@@ -12794,10 +12794,10 @@
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D734">
         <v>2026</v>
@@ -12805,10 +12805,10 @@
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C735" s="1">
         <v>1</v>
@@ -12819,10 +12819,10 @@
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C736" s="1">
         <v>3</v>
@@ -12833,10 +12833,10 @@
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C737" s="1">
         <v>4</v>
@@ -12847,10 +12847,10 @@
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C738" s="1">
         <v>5</v>
@@ -12861,10 +12861,10 @@
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C739" s="1">
         <v>6</v>
@@ -12875,10 +12875,10 @@
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C740" s="1">
         <v>7</v>
@@ -12889,10 +12889,10 @@
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C741" s="1">
         <v>8</v>
@@ -12903,10 +12903,10 @@
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C742" s="1">
         <v>9</v>
@@ -12917,10 +12917,10 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C743" s="1">
         <v>10</v>
@@ -12931,10 +12931,10 @@
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C744" s="1">
         <v>11</v>
@@ -12945,10 +12945,10 @@
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C745" s="1">
         <v>12</v>
@@ -12959,10 +12959,10 @@
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C746" s="1">
         <v>13</v>
@@ -12973,10 +12973,10 @@
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C747" s="1">
         <v>14</v>
@@ -12987,10 +12987,10 @@
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C748" s="1">
         <v>16</v>
@@ -13001,10 +13001,10 @@
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C749" s="1">
         <v>17</v>
@@ -13015,10 +13015,10 @@
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C750" s="1">
         <v>18</v>
@@ -13029,10 +13029,10 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C751" s="1">
         <v>20</v>
@@ -13043,10 +13043,10 @@
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C752" s="1">
         <v>21</v>
@@ -13057,10 +13057,10 @@
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C753" s="1">
         <v>22</v>
@@ -13071,10 +13071,10 @@
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C754" s="1">
         <v>23</v>
@@ -13085,10 +13085,10 @@
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C755" s="1">
         <v>24</v>
@@ -13099,10 +13099,10 @@
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C756" s="1">
         <v>26</v>
@@ -13113,10 +13113,10 @@
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C757" s="1">
         <v>27</v>
@@ -13127,10 +13127,10 @@
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C758" s="1">
         <v>29</v>
@@ -13141,10 +13141,10 @@
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C759" s="1">
         <v>30</v>
@@ -13155,10 +13155,10 @@
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C760" s="1">
         <v>31</v>
@@ -13169,10 +13169,10 @@
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C761" s="1">
         <v>32</v>
@@ -13183,10 +13183,10 @@
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C762" s="1">
         <v>33</v>
@@ -13197,10 +13197,10 @@
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C763" s="1">
         <v>34</v>
@@ -13211,10 +13211,10 @@
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C764" s="1">
         <v>35</v>
@@ -13225,10 +13225,10 @@
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C765" s="1">
         <v>36</v>
@@ -13239,10 +13239,10 @@
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C766" s="1">
         <v>37</v>
@@ -13253,10 +13253,10 @@
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C767" s="1">
         <v>38</v>
@@ -13267,10 +13267,10 @@
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C768" s="1">
         <v>40</v>
@@ -13281,10 +13281,10 @@
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C769" s="1">
         <v>41</v>
@@ -13295,10 +13295,10 @@
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C770" s="1">
         <v>42</v>
@@ -13309,10 +13309,10 @@
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C771" s="1">
         <v>43</v>
@@ -13323,10 +13323,10 @@
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C772" s="1">
         <v>44</v>
@@ -13337,10 +13337,10 @@
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D773">
         <v>2026</v>
@@ -13348,10 +13348,10 @@
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D774">
         <v>2026</v>
@@ -13359,10 +13359,10 @@
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D775">
         <v>2026</v>
@@ -13370,10 +13370,10 @@
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D776">
         <v>2026</v>
